--- a/table.xlsx
+++ b/table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DBBF9-7434-4C97-B208-50BB8E3C9B12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A988465-C2F1-4CDB-8730-4CA75C30369C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +403,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>550</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
